--- a/data/trans_bre/P25A_N_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,73</t>
+          <t>14,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>116,57%</t>
+          <t>28,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,85%</t>
+          <t>140,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>77,78%</t>
+          <t>116,14%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>65,98%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>178,53%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 22,63</t>
+          <t>-1,43; 29,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 17,83</t>
+          <t>-3,16; 31,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 17,39</t>
+          <t>-7,09; 26,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,21; 374,34</t>
+          <t>7,49; 52,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 221,66</t>
+          <t>-16,97; 794,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 298,45</t>
+          <t>-19,21; 682,28</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-44,65; 454,85</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 700,58</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>12,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>116,64%</t>
+          <t>12,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>173,16%</t>
+          <t>77,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>221,13%</t>
+          <t>200,38%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>361,42%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>144,02%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 12,58</t>
+          <t>-0,68; 12,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 12,35</t>
+          <t>3,27; 16,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 15,96</t>
+          <t>6,81; 18,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,26; 278,54</t>
+          <t>4,93; 20,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,71; 389,97</t>
+          <t>-12,41; 289,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,58; 495,82</t>
+          <t>33,33; 659,13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>103,78; 1132,42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37,23; 374,75</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,08%</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,97%</t>
+          <t>-42,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-5,44%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-5,06%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 4,09</t>
+          <t>-11,77; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 8,68</t>
+          <t>-5,17; 6,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 7,85</t>
+          <t>-10,34; 6,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 74,93</t>
+          <t>-9,81; 7,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 211,55</t>
+          <t>-76,82; 32,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 127,0</t>
+          <t>-51,59; 183,13</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-58,63; 100,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-48,48; 89,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>104,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>107,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,07; 138,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,47; 200,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,88; 205,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>101,98%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>94,48%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>94,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 6,75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 10,85</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 11,41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 18,71</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-18,65; 102,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 233,65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 206,53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31,66; 221,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_N_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,26</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>28,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>140,89%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>116,14%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>65,98%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>178,53%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>13.89910854800663</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.11419295881246</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.677350956999479</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>27.30241893996867</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.508594598279531</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.203395433019063</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7036567913605363</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.684952923477736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 29,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 31,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,09; 26,02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 52,59</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-16,97; 794,09</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-19,21; 682,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-44,65; 454,85</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>20,34; 700,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.2302375198592487</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.678935585389998</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.185847624294039</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>6.838931898043492</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1237524851614993</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1940383642567304</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4441185616788821</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1658718989480104</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.30957806090066</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>33.19057612603158</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>27.779991623456</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>51.14763778410361</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>8.337242665508652</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>6.821520236717959</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>4.983141569923735</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>6.508527916723756</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,58</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,54</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,52</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,07</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>77,53%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>200,38%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>361,42%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>144,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 12,25</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,27; 16,14</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 18,87</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,93; 20,34</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-12,41; 289,03</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>33,33; 659,13</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>103,78; 1132,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>37,23; 374,75</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.675230960756103</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.929741503803211</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.39031490174078</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.76739133166015</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.8357021558142114</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.085728496312568</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>3.777327269572387</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.623414076123249</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,47</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-42,52%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>13,46%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-5,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-5,06%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.5761445912043344</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3.706337708749584</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.810406755663798</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>6.111458476189555</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.111352948341211</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.3892221376704157</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>1.11870882398471</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.5031491150005786</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,77; 1,59</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,17; 6,85</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,34; 6,82</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,81; 7,43</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-76,82; 32,45</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-51,59; 183,13</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-58,63; 100,1</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-48,48; 89,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.18022457481943</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.78554567726992</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>18.51452791383947</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.97133036088095</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.184343087554746</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>6.513774213286254</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>11.95416107750999</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.076910670930809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.258238979700758</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3790941891249525</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.336372730216656</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.4290356695508701</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.4708833251792486</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.04949498903441082</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1134323479444485</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.03157036141584627</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.73678898431918</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.34096776661457</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.66655452037004</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.307006360460738</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8281165055100609</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6095330413897897</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6433489471444928</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4929648645719307</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.9171255771468561</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.437827277473867</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.949172531860288</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.308925538531365</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1360461294233964</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.55690639619295</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.812718693383696</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.9111006077241438</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>30,98%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>101,98%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>94,48%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>94,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 6,75</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 10,85</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 11,41</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 18,71</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-18,65; 102,64</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>22,47; 233,65</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>20,92; 206,53</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>31,66; 221,55</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.431688189288408</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.016362014088243</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.994447558073155</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.29912008097642</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.2759172719613282</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.024042365330894</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9345083243580808</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.01369922079887</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.688356403344145</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.983234661921411</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.342616265623536</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5.171310688502454</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2697123426650136</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.2019028311170203</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1778216048928021</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3513292848363741</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.664758721210276</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.25137242107869</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.28245056664246</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>18.80164623656416</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9665726505033044</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.456733833683471</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.06025856169178</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.215962930499261</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
